--- a/TI/Requisitos.xlsx
+++ b/TI/Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giibu\Documents\Faculdade Bandtec\Pesquisa e Inovação\ProjetoIndividual\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C1715B-D991-48C1-84E8-0711B8B0C22F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF934A57-DC03-4FB9-B5BE-F2419C3F08A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73883276-185F-4102-BA21-70C61642E72C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Aplicação</t>
   </si>
@@ -33,9 +33,6 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Criar um site sobre desenhos e pinturas contendo: informações, ténicas e novidades sobre o assunto.</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
@@ -51,15 +48,9 @@
     <t>4.</t>
   </si>
   <si>
-    <t xml:space="preserve">Criar página para ajudas ao cliente. </t>
-  </si>
-  <si>
     <t>5.</t>
   </si>
   <si>
-    <t>Criar tela de cadastro.</t>
-  </si>
-  <si>
     <t>6.</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
     <t>7.</t>
   </si>
   <si>
-    <t>Criar tela de login.</t>
-  </si>
-  <si>
     <t>8.</t>
   </si>
   <si>
@@ -106,6 +94,24 @@
   </si>
   <si>
     <t>Emitir alertas caso o usuário fique muito tempo sem acessar o site.</t>
+  </si>
+  <si>
+    <t>Criar um site sobre desenhos e pinturas contendo: informações, técnicas e novidades sobre o assunto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar página para falar sobre a escolha do site. </t>
+  </si>
+  <si>
+    <t>Criar tela de cadastro com nome, e-mail, senha e celular.</t>
+  </si>
+  <si>
+    <t>Criar tela de login com e-mail e senha.</t>
+  </si>
+  <si>
+    <t>Criar página do usuário, contendo assuntos sobre desenho e pinturas.</t>
+  </si>
+  <si>
+    <t>14.</t>
   </si>
 </sst>
 </file>
@@ -157,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -181,15 +187,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -197,16 +223,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BFAD3B-565D-43CB-8E42-69AE0AF53F3C}">
-  <dimension ref="C3:D16"/>
+  <dimension ref="C3:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C3" sqref="C3:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,112 +565,120 @@
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4" t="s">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
